--- a/PLTR.xlsx
+++ b/PLTR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D38033-CFA7-492E-92CC-22426714B454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68231855-22FD-4E3F-BD35-F5EF4DB95913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{6762F9C4-146C-4858-9F14-B8B09877D4A1}"/>
   </bookViews>
@@ -213,13 +213,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -282,26 +288,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -665,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="2">
-        <v>154.47</v>
+        <v>169.27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -676,11 +685,11 @@
         <v>5</v>
       </c>
       <c r="G4" s="3">
-        <f>2274.261581+97.07584+1.005</f>
-        <v>2372.3424210000003</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>52</v>
+        <f>2284.334012+98.097326+1.005</f>
+        <v>2383.436338</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -692,7 +701,7 @@
       </c>
       <c r="G5" s="3">
         <f>G3*G4</f>
-        <v>366455.73377187003</v>
+        <v>403444.26893326</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -700,11 +709,11 @@
         <v>7</v>
       </c>
       <c r="G6" s="3">
-        <f>929.547+5070.875</f>
-        <v>6000.4220000000005</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>52</v>
+        <f>1615.967+4821.85</f>
+        <v>6437.8170000000009</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -714,8 +723,8 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>52</v>
+      <c r="H7" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -724,7 +733,7 @@
       </c>
       <c r="G8" s="3">
         <f>G5-G6+G7</f>
-        <v>360455.31177187001</v>
+        <v>397006.45193326002</v>
       </c>
     </row>
   </sheetData>
@@ -740,10 +749,10 @@
   <dimension ref="A1:Z572"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -830,7 +839,9 @@
       <c r="H3" s="6">
         <v>370.767</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6">
+        <v>408.34100000000001</v>
+      </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6">
         <v>486.96300000000002</v>
@@ -838,7 +849,9 @@
       <c r="L3" s="6">
         <v>552.98299999999995</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6">
+        <v>632.67600000000004</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -870,7 +883,9 @@
       <c r="H4" s="6">
         <v>307.36700000000002</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6">
+        <v>317.17500000000001</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6">
         <v>396.892</v>
@@ -878,7 +893,9 @@
       <c r="L4" s="6">
         <v>450.714</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6">
+        <v>548.41600000000005</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -910,7 +927,9 @@
       <c r="H5" s="7">
         <v>678.13400000000001</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>725.51599999999996</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7">
         <v>883.85500000000002</v>
@@ -918,7 +937,9 @@
       <c r="L5" s="7">
         <v>1003.697</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7">
+        <v>1181.0920000000001</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -955,7 +976,9 @@
       <c r="H6" s="6">
         <v>128.56200000000001</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6">
+        <v>146.63900000000001</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6">
         <v>172.97</v>
@@ -963,7 +986,9 @@
       <c r="L6" s="6">
         <v>192.934</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6">
+        <v>207.30699999999999</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1010,7 +1035,7 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>578.87699999999995</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="0"/>
@@ -1024,7 +1049,10 @@
         <f>+L5-L6</f>
         <v>810.76300000000003</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6">
+        <f>+M5-M6</f>
+        <v>973.78500000000008</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6">
@@ -1069,7 +1097,9 @@
       <c r="H8" s="6">
         <v>196.809</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6">
+        <v>209.47399999999999</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6">
         <v>236.309</v>
@@ -1077,7 +1107,9 @@
       <c r="L8" s="6">
         <v>243.78800000000001</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>274.63600000000002</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1110,7 +1142,9 @@
       <c r="H9" s="6">
         <v>108.78100000000001</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6">
+        <v>117.55500000000001</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6">
         <v>134.88900000000001</v>
@@ -1118,7 +1152,9 @@
       <c r="L9" s="6">
         <v>135.04300000000001</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6">
+        <v>144.191</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1151,7 +1187,9 @@
       <c r="H10" s="6">
         <v>138.643</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6">
+        <v>138.708</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6">
         <v>163.63900000000001</v>
@@ -1159,7 +1197,9 @@
       <c r="L10" s="6">
         <v>162.61500000000001</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6">
+        <v>161.702</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1202,8 +1242,8 @@
         <v>105.33899999999994</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" ref="I11:L11" si="3">I7-SUM(I8:I10)</f>
-        <v>0</v>
+        <f t="shared" ref="I11:M11" si="3">I7-SUM(I8:I10)</f>
+        <v>113.13999999999999</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
@@ -1217,7 +1257,10 @@
         <f t="shared" si="3"/>
         <v>269.31700000000001</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6">
+        <f t="shared" si="3"/>
+        <v>393.25600000000009</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6">
@@ -1262,7 +1305,9 @@
       <c r="H12" s="6">
         <v>46.593000000000004</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6">
+        <v>52.12</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6">
         <v>50.441000000000003</v>
@@ -1270,7 +1315,9 @@
       <c r="L12" s="6">
         <v>56.255000000000003</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6">
+        <v>59.762</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1303,7 +1350,9 @@
       <c r="H13" s="6">
         <v>-11.173</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>-8.11</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6">
         <v>-3.173</v>
@@ -1311,7 +1360,9 @@
       <c r="L13" s="6">
         <v>6.5960000000000001</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6">
+        <v>27.483000000000001</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -1357,8 +1408,8 @@
         <v>140.75899999999996</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" ref="I14:L14" si="6">I11+I12+I13</f>
-        <v>0</v>
+        <f t="shared" ref="I14:M14" si="6">I11+I12+I13</f>
+        <v>157.14999999999998</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="6"/>
@@ -1372,7 +1423,10 @@
         <f t="shared" si="6"/>
         <v>332.16800000000001</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6">
+        <f t="shared" si="6"/>
+        <v>480.50100000000009</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6">
@@ -1417,7 +1471,9 @@
       <c r="H15" s="6">
         <v>5.1890000000000001</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6">
+        <v>7.8090000000000002</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6">
         <v>5.5990000000000002</v>
@@ -1425,7 +1481,9 @@
       <c r="L15" s="6">
         <v>3.5960000000000001</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6">
+        <v>3.7530000000000001</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -1471,8 +1529,8 @@
         <v>135.56999999999996</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" ref="I16:L16" si="9">I14-I15</f>
-        <v>0</v>
+        <f t="shared" ref="I16:M16" si="9">I14-I15</f>
+        <v>149.34099999999998</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="9"/>
@@ -1486,7 +1544,10 @@
         <f t="shared" si="9"/>
         <v>328.572</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <f t="shared" si="9"/>
+        <v>476.7480000000001</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6">
@@ -1529,7 +1590,9 @@
       <c r="H17" s="6">
         <v>1.444</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6">
+        <v>5.8159999999999998</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6">
         <v>3.6859999999999999</v>
@@ -1537,7 +1600,9 @@
       <c r="L17" s="6">
         <v>1.845</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6">
+        <v>1.149</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -1584,7 +1649,7 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>143.52499999999998</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="11"/>
@@ -1598,7 +1663,10 @@
         <f>+L16-L17</f>
         <v>326.72699999999998</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6">
+        <f>+M16-M17</f>
+        <v>475.5990000000001</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6">
@@ -1654,72 +1722,72 @@
         <v>31</v>
       </c>
       <c r="C20" s="8" t="e">
-        <f>C16/C21</f>
+        <f t="shared" ref="C20:H20" si="13">C16/C21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D20" s="8">
-        <f>D16/D21</f>
+        <f t="shared" si="13"/>
         <v>1.3077930804082516E-2</v>
       </c>
       <c r="E20" s="8" t="e">
-        <f>E16/E21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="8" t="e">
-        <f>F16/F21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="8">
-        <f>G16/G21</f>
-        <v>4.794165015845625E-2</v>
-      </c>
-      <c r="H20" s="8">
-        <f>H16/H21</f>
-        <v>6.0750352214920991E-2</v>
-      </c>
-      <c r="I20" s="8" t="e">
-        <f t="shared" ref="I20:N20" si="13">I16/I21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="8">
-        <f t="shared" si="13"/>
-        <v>9.2697639822214961E-2</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="13"/>
-        <v>0.13891956522842083</v>
-      </c>
-      <c r="M20" s="8" t="e">
+      <c r="F20" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="G20" s="8">
+        <f t="shared" si="13"/>
+        <v>4.794165015845625E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="13"/>
+        <v>6.0750352214920991E-2</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" ref="I20:N20" si="14">I16/I21</f>
+        <v>6.6372833808585815E-2</v>
+      </c>
+      <c r="J20" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="14"/>
+        <v>9.2697639822214961E-2</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="14"/>
+        <v>0.13891956522842083</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="14"/>
+        <v>0.20055301121040303</v>
+      </c>
       <c r="N20" s="8" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="8" t="e">
-        <f t="shared" ref="P20:T20" si="14">+P18/P21</f>
+        <f t="shared" ref="P20:T20" si="15">+P18/P21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R20" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S20" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.18107678434804267</v>
       </c>
       <c r="T20" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.7709092568567552E-2</v>
       </c>
       <c r="U20" s="8">
@@ -1744,7 +1812,9 @@
       <c r="H21" s="6">
         <v>2231.5920000000001</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="6">
+        <v>2250.0320000000002</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6">
         <v>2348.6790000000001</v>
@@ -1752,7 +1822,9 @@
       <c r="L21" s="6">
         <v>2365.1959999999999</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="6">
+        <v>2377.1669999999999</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -1800,35 +1872,35 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="9" t="e">
-        <f t="shared" ref="G23:G24" si="15">G3/C3-1</f>
+        <f t="shared" ref="G23:G24" si="16">G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" ref="H23:H24" si="16">H3/D3-1</f>
+        <f t="shared" ref="H23:H24" si="17">H3/D3-1</f>
         <v>0.22972090015090951</v>
       </c>
       <c r="I23" s="9" t="e">
-        <f t="shared" ref="I23:I24" si="17">I3/E3-1</f>
+        <f t="shared" ref="I23:I24" si="18">I3/E3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="9" t="e">
-        <f t="shared" ref="J23:J24" si="18">J3/F3-1</f>
+        <f t="shared" ref="J23:J24" si="19">J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" ref="K23:K25" si="19">K3/G3-1</f>
+        <f t="shared" ref="K23:K25" si="20">K3/G3-1</f>
         <v>0.45200418638351936</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" ref="L23:L25" si="20">L3/H3-1</f>
+        <f t="shared" ref="L23:L25" si="21">L3/H3-1</f>
         <v>0.49145689880706733</v>
       </c>
-      <c r="M23" s="9" t="e">
-        <f t="shared" ref="M23:M25" si="21">M3/I3-1</f>
-        <v>#DIV/0!</v>
+      <c r="M23" s="9">
+        <f t="shared" ref="M23:M25" si="22">M3/I3-1</f>
+        <v>0.54938152181632516</v>
       </c>
       <c r="N23" s="9" t="e">
-        <f t="shared" ref="N23:N25" si="22">N3/J3-1</f>
+        <f t="shared" ref="N23:N25" si="23">N3/J3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="6"/>
@@ -1849,35 +1921,35 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.32593222093765628</v>
       </c>
       <c r="I24" s="9" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="9" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="J24" s="9" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K24" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.32755339253758819</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.46637082055002632</v>
       </c>
-      <c r="M24" s="9" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+      <c r="M24" s="9">
+        <f t="shared" si="22"/>
+        <v>0.72906439662646805</v>
       </c>
       <c r="N24" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="6"/>
@@ -1898,7 +1970,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="11" t="e">
-        <f t="shared" ref="G25" si="23">G5/C5-1</f>
+        <f t="shared" ref="G25" si="24">G5/C5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="11">
@@ -1906,27 +1978,27 @@
         <v>0.2715401909183468</v>
       </c>
       <c r="I25" s="11" t="e">
-        <f t="shared" ref="I25:J25" si="24">I5/E5-1</f>
+        <f t="shared" ref="I25:J25" si="25">I5/E5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="11" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.39324041438362634</v>
       </c>
       <c r="L25" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.48008653157045655</v>
       </c>
-      <c r="M25" s="11" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+      <c r="M25" s="11">
+        <f t="shared" si="22"/>
+        <v>0.62793377403117256</v>
       </c>
       <c r="N25" s="11" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="6"/>
@@ -1943,51 +2015,51 @@
         <v>33</v>
       </c>
       <c r="C26" s="9" t="e">
-        <f t="shared" ref="C26:H26" si="25">C7/C5</f>
+        <f t="shared" ref="C26:H26" si="26">C7/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.79955823647099189</v>
       </c>
       <c r="E26" s="9" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="9" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="9">
-        <f t="shared" si="25"/>
-        <v>0.81674306575786437</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="shared" si="25"/>
-        <v>0.81041799998230435</v>
-      </c>
-      <c r="I26" s="9" t="e">
-        <f t="shared" ref="I26:J26" si="26">I7/I5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="9" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="9">
-        <f t="shared" ref="K26:N26" si="27">K7/K5</f>
-        <v>0.8043004791509919</v>
-      </c>
-      <c r="L26" s="9">
-        <f t="shared" si="27"/>
-        <v>0.80777664972596319</v>
-      </c>
-      <c r="M26" s="9" t="e">
+      <c r="F26" s="9" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="26"/>
+        <v>0.81674306575786437</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="26"/>
+        <v>0.81041799998230435</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" ref="I26:J26" si="27">I7/I5</f>
+        <v>0.79788316177727303</v>
+      </c>
+      <c r="J26" s="9" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K26" s="9">
+        <f t="shared" ref="K26:N26" si="28">K7/K5</f>
+        <v>0.8043004791509919</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="28"/>
+        <v>0.80777664972596319</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="28"/>
+        <v>0.82447853342499988</v>
+      </c>
       <c r="N26" s="9" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="6"/>
@@ -2004,51 +2076,51 @@
         <v>34</v>
       </c>
       <c r="C27" s="9" t="e">
-        <f t="shared" ref="C27:H27" si="28">C11/C5</f>
+        <f t="shared" ref="C27:H27" si="29">C11/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.8889328485684791E-2</v>
       </c>
       <c r="E27" s="9" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="9" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="9">
-        <f t="shared" si="28"/>
-        <v>0.12757334628019451</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="28"/>
-        <v>0.1553365559019308</v>
-      </c>
-      <c r="I27" s="9" t="e">
-        <f t="shared" ref="I27:J27" si="29">I11/I5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="9" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="9">
-        <f t="shared" ref="K27:N27" si="30">K11/K5</f>
-        <v>0.19918199252139773</v>
-      </c>
-      <c r="L27" s="9">
-        <f t="shared" si="30"/>
-        <v>0.26832500246588364</v>
-      </c>
-      <c r="M27" s="9" t="e">
+      <c r="F27" s="9" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="29"/>
+        <v>0.12757334628019451</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="29"/>
+        <v>0.1553365559019308</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:J27" si="30">I11/I5</f>
+        <v>0.15594418317445788</v>
+      </c>
+      <c r="J27" s="9" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K27" s="9">
+        <f t="shared" ref="K27:N27" si="31">K11/K5</f>
+        <v>0.19918199252139773</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="31"/>
+        <v>0.26832500246588364</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="31"/>
+        <v>0.33295966783281916</v>
+      </c>
       <c r="N27" s="9" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="6"/>
@@ -2065,51 +2137,51 @@
         <v>35</v>
       </c>
       <c r="C28" s="9" t="e">
-        <f t="shared" ref="C28:H28" si="31">C15/C14</f>
+        <f t="shared" ref="C28:H28" si="32">C15/C14</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.226308957161412E-2</v>
       </c>
       <c r="E28" s="9" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="9" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="9">
-        <f t="shared" si="31"/>
-        <v>4.20217375604824E-2</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" si="31"/>
-        <v>3.6864427851860282E-2</v>
-      </c>
-      <c r="I28" s="9" t="e">
-        <f t="shared" ref="I28:J28" si="32">I15/I14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="9" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="9">
-        <f t="shared" ref="K28:N28" si="33">K15/K14</f>
-        <v>2.5072095147683104E-2</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" si="33"/>
-        <v>1.0825847161677223E-2</v>
-      </c>
-      <c r="M28" s="9" t="e">
+      <c r="F28" s="9" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="32"/>
+        <v>4.20217375604824E-2</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="32"/>
+        <v>3.6864427851860282E-2</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" ref="I28:J28" si="33">I15/I14</f>
+        <v>4.9691377664651613E-2</v>
+      </c>
+      <c r="J28" s="9" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K28" s="9">
+        <f t="shared" ref="K28:N28" si="34">K15/K14</f>
+        <v>2.5072095147683104E-2</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="34"/>
+        <v>1.0825847161677223E-2</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="34"/>
+        <v>7.8105976886624576E-3</v>
+      </c>
       <c r="N28" s="9" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="6"/>
